--- a/Python_Coding_Tips/Code_py/Code（实例源码及使用说明）/08/18/demo/demo.xlsx
+++ b/Python_Coding_Tips/Code_py/Code（实例源码及使用说明）/08/18/demo/demo.xlsx
@@ -1,72 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>demo1</t>
-  </si>
-  <si>
-    <t>demo2</t>
-  </si>
-  <si>
-    <t>demo3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,29 +74,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -377,141 +363,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>demo1</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>demo2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>demo3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>